--- a/out/pm-signin.xlsx
+++ b/out/pm-signin.xlsx
@@ -19,7 +19,7 @@
     <t>PM Attendance 2018</t>
   </si>
   <si>
-    <t>Week: 6</t>
+    <t>Week: 5</t>
   </si>
   <si>
     <t>Term: 1</t>
